--- a/Data_science_outputs_highlands/Graphs/Third/1/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/1/Montlhy_consumption_3.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4116.661974916668</v>
+        <v>2473.600667666667</v>
       </c>
       <c r="C2" t="n">
-        <v>2351.599128433334</v>
+        <v>431.8918960333334</v>
       </c>
       <c r="D2" t="n">
-        <v>1318.6975042</v>
+        <v>179.4626243833333</v>
       </c>
       <c r="E2" t="n">
-        <v>400.1840932166667</v>
+        <v>354.0098631</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3855.108785050001</v>
+        <v>2281.668453566667</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1237.68813355</v>
+        <v>178.1549828166667</v>
       </c>
       <c r="E3" t="n">
-        <v>355.9091347666666</v>
+        <v>333.6563861166667</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4089.768447066667</v>
+        <v>2455.323037983334</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1313.38297855</v>
+        <v>189.9800022</v>
       </c>
       <c r="E4" t="n">
-        <v>372.1555363166667</v>
+        <v>357.9503374833333</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3997.289996516667</v>
+        <v>2355.0055285</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1281.0056244</v>
+        <v>177.5133564166667</v>
       </c>
       <c r="E5" t="n">
-        <v>371.1109415166667</v>
+        <v>350.05448895</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4102.217865816667</v>
+        <v>2450.179311583334</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1317.307121666667</v>
+        <v>189.8136611333333</v>
       </c>
       <c r="E6" t="n">
-        <v>374.1476903333333</v>
+        <v>359.0386477333333</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3985.17241685</v>
+        <v>2379.635221333333</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1280.051900333333</v>
+        <v>183.8837487</v>
       </c>
       <c r="E7" t="n">
-        <v>354.7076161833334</v>
+        <v>351.2545741166667</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>4112.759348666667</v>
+        <v>2456.16798535</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.4077206</v>
+        <v>191.9583168833333</v>
       </c>
       <c r="E8" t="n">
-        <v>386.0292638333333</v>
+        <v>366.1520578166667</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4141.800747383334</v>
+        <v>2460.20133735</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1328.936429583333</v>
+        <v>182.5419986</v>
       </c>
       <c r="E9" t="n">
-        <v>366.42780335</v>
+        <v>366.51391025</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3993.139551333334</v>
+        <v>2362.302323683333</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1278.579256116667</v>
+        <v>188.1219928833333</v>
       </c>
       <c r="E10" t="n">
-        <v>376.5195011166666</v>
+        <v>350.3238978333334</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4120.533182433334</v>
+        <v>2442.5742956</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1310.06527965</v>
+        <v>190.4388940333333</v>
       </c>
       <c r="E11" t="n">
-        <v>368.8713039833333</v>
+        <v>344.93226595</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3974.444133333334</v>
+        <v>2383.115729266667</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1270.87914865</v>
+        <v>182.46675275</v>
       </c>
       <c r="E12" t="n">
-        <v>378.7645485666667</v>
+        <v>343.9180518333333</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3954.759672400001</v>
+        <v>2358.11907365</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1272.404310983333</v>
+        <v>185.6736942333333</v>
       </c>
       <c r="E13" t="n">
-        <v>375.7094729166666</v>
+        <v>339.6260415666666</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
